--- a/Dokumentation_AnalyseProBereich.xlsx
+++ b/Dokumentation_AnalyseProBereich.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\AnalyticsAufgabe4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliusstahnke/Documents/HTW/Analytics/Analytics/Aufgabe4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Verwendung aller Wörter</t>
   </si>
@@ -102,12 +108,18 @@
   </si>
   <si>
     <t>max_df=400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusammengefasster Datensatz </t>
+  </si>
+  <si>
+    <t>Zusammengefasster Datensatz (Kategorisiert Durch Annotator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -163,7 +175,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -172,10 +184,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -184,95 +196,95 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -281,118 +293,118 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -401,18 +413,29 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -461,6 +484,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,19 +803,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -795,10 +823,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -813,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
@@ -828,7 +856,7 @@
         <v>0.64710000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
@@ -845,7 +873,7 @@
         <v>0.62649999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>2</v>
       </c>
@@ -862,7 +890,7 @@
         <v>0.64059999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
@@ -879,7 +907,7 @@
         <v>0.67220000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
@@ -896,7 +924,7 @@
         <v>0.63649999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
@@ -913,7 +941,7 @@
         <v>0.64080000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
@@ -930,7 +958,7 @@
         <v>0.64102999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
@@ -947,7 +975,7 @@
         <v>0.7218</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>11</v>
       </c>
@@ -964,34 +992,79 @@
         <v>0.62890000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="13">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.62390000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="12">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.61240000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="37">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.64770000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="40">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.6462</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
